--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57549.24475732919</v>
+        <v>11363607.81602009</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57549.24475732919</v>
+        <v>11363607.81602009</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2062.186209961764</v>
+        <v>329776.4373874151</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2062.186209961764</v>
+        <v>329776.4373874151</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266693025.489824</v>
+        <v>52694067.00875228</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11372.00609209754</v>
+        <v>1285413.335060514</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21172.8323364129</v>
+        <v>2324399.393334904</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30973.65858072825</v>
+        <v>3363385.451609295</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40818.59692355146</v>
+        <v>4394452.00466422</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50661.8411429003</v>
+        <v>5434957.190509037</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60490.75397007529</v>
+        <v>6473943.248783428</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70319.66679725029</v>
+        <v>7512929.307057815</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80148.57962442529</v>
+        <v>8551915.365332201</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89993.67258485463</v>
+        <v>9582973.888520442</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99837.13598262108</v>
+        <v>10623479.07436525</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109665.9522226967</v>
+        <v>11662465.13263964</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119495.0842282894</v>
+        <v>12701451.19091404</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129324.1196467827</v>
+        <v>13740437.24918844</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139222.1637790773</v>
+        <v>14729388.33041416</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149314.5607478482</v>
+        <v>15709227.58218851</v>
       </c>
     </row>
   </sheetData>
